--- a/Kopie von 09-pressv10.xlsx
+++ b/Kopie von 09-pressv10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofmannt.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C544CB4E-FAD6-47A9-957C-326621490466}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F9E41-BDCC-48CF-A24C-EC8540BA9A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="239" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2214,8 +2214,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D1" s="16">
         <f ca="1">NOW()</f>
-        <v>43846.551842013891</v>
+        <v>43852.626130555553</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="11">
-        <v>350</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2393,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="21">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="11">
-        <v>36</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2449,7 +2449,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="19">
-        <v>28</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="19">
-        <v>70</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2505,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>90</v>
       </c>
       <c r="D32" s="21">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="19">
-        <v>510</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="21">
-        <v>275</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D43" s="26">
         <f>2*D19/(0.001*D25)</f>
-        <v>19444.444444444442</v>
+        <v>199078.34101382489</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D44" s="26">
         <f>SQRT(D43^2+D20^2)</f>
-        <v>19444.444444444442</v>
+        <v>201844.18708701211</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="D45" s="26">
         <f>D44*D21</f>
-        <v>34999.999999999993</v>
+        <v>403688.37417402421</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D46" s="27">
         <f>D45/(D25*PI()*D26*D22)</f>
-        <v>78.94590431145599</v>
+        <v>422.96906002979972</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="D47" s="27">
         <f>D25/D27</f>
-        <v>0.51428571428571423</v>
+        <v>0.89484536082474231</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D49" s="27">
         <f>D34/D35*((1+D48^2)/(1-D48^2)-D37)+(1+D47^2)/(1-D47^2)+D36</f>
-        <v>2.7192008879023302</v>
+        <v>10.037551473255245</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="D50" s="27">
         <f>D49*D46/D34*1000</f>
-        <v>1.022237014761731</v>
+        <v>20.217017674492869</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="D51" s="29">
         <f>D50*D25</f>
-        <v>36.80053253142232</v>
+        <v>4387.0928353649524</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D52" s="29">
         <f>D32*(D30+D31)</f>
-        <v>12.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D53" s="30">
         <f>D51+D52</f>
-        <v>49.600532531422317</v>
+        <v>4391.0928353649524</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D57" s="27">
         <f>IF(D48=0,(D49*2*D39/(SQRT(3)*D23*D34))*1000,IF(AND(D48=0,D34=D35,D36=D37),(4*D39/(SQRT(3)*D23*(1-D47^2)*D34))*1000,(D49*(1-D48^2)*D39/(SQRT(3)*D23*D34))*1000))</f>
-        <v>3.4264375021273565</v>
+        <v>18.397406492344892</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="D58" s="27">
         <f>IF(AND(D48=0,D34=D35,D36=D37),(2*D38/(SQRT(3)*D23*D34))*1000,(D49*(1-D47^2)*D38/(SQRT(3)*D23*D34))*1000)</f>
-        <v>2.3368939467199144</v>
+        <v>3.4366087451763443</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="D59" s="27">
         <f>IF(D58&lt;D57,D58,D57)</f>
-        <v>2.3368939467199144</v>
+        <v>3.4366087451763443</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="D60" s="29">
         <f>D59*D25</f>
-        <v>84.128182081916918</v>
+        <v>745.74409770326668</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D61" s="30">
         <f>D60+D52</f>
-        <v>96.928182081916916</v>
+        <v>749.74409770326668</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
